--- a/InfoLubri_y_RedMas/Auxiliar_Objetivos_y_Envases.xlsx
+++ b/InfoLubri_y_RedMas/Auxiliar_Objetivos_y_Envases.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Informes\InfoObjetivoLubri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Informes\InfoLubri_y_RedMas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13035" windowHeight="12360" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13035" windowHeight="12360" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Objetivos_UEN_Envase" sheetId="1" r:id="rId1"/>
     <sheet name="Objetivos_x_Envase" sheetId="3" r:id="rId2"/>
     <sheet name="Lts_x_Envase" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Lts_x_Envase!$A$1:$B$147</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="164">
   <si>
     <t>UEN</t>
   </si>
@@ -460,9 +463,6 @@
     <t>Lts_x_Envase</t>
   </si>
   <si>
-    <t>Objetivo por Envase</t>
-  </si>
-  <si>
     <t>MERC GUAYMALLEN</t>
   </si>
   <si>
@@ -503,6 +503,24 @@
   </si>
   <si>
     <t>VILLANUEVA</t>
+  </si>
+  <si>
+    <t>1176</t>
+  </si>
+  <si>
+    <t>1185</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>OBJETIVO (lts)</t>
+  </si>
+  <si>
+    <t>ENVASE (lts)</t>
   </si>
 </sst>
 </file>
@@ -538,12 +556,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -851,7 +873,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -886,7 +908,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -921,7 +943,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -956,7 +978,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -991,7 +1013,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -1026,7 +1048,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -1061,7 +1083,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -1096,7 +1118,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -1131,7 +1153,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -1166,7 +1188,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -1201,7 +1223,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -1236,7 +1258,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -1271,7 +1293,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -1306,7 +1328,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -1348,26 +1370,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1376,7 +1398,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>4</v>
       </c>
       <c r="B3">
@@ -1385,7 +1407,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>20</v>
       </c>
       <c r="B4">
@@ -1400,11 +1422,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B146"/>
+  <dimension ref="A1:B147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A120" sqref="A120:B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,16 +2224,16 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>100</v>
+      <c r="A100" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="B100">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>20</v>
@@ -2219,7 +2241,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>20</v>
@@ -2227,55 +2249,55 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>104</v>
+      <c r="A104" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B105">
-        <v>0.44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B106">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B107">
-        <v>4</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>4</v>
@@ -2283,7 +2305,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -2291,95 +2313,95 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B111">
-        <v>205</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B112">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B113">
-        <v>20</v>
+        <v>205</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B116">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B117">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B118">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B120">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B121">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>20</v>
@@ -2387,7 +2409,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>20</v>
@@ -2395,47 +2417,47 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B125">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B126">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B128">
-        <v>1000</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -2443,23 +2465,23 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B130">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B131">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>20</v>
@@ -2467,7 +2489,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>20</v>
@@ -2475,7 +2497,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>20</v>
@@ -2483,23 +2505,23 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B135">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>18</v>
@@ -2507,7 +2529,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -2515,23 +2537,23 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B139">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>140</v>
+      <c r="A141" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="B141">
         <v>4</v>
@@ -2539,7 +2561,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B142">
         <v>20</v>
@@ -2547,37 +2569,50 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B145">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B143">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>1176</v>
-      </c>
-      <c r="B144">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>1185</v>
-      </c>
-      <c r="B145">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B146">
-        <v>4</v>
+      <c r="B147">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B147">
+    <sortState ref="A2:B146">
+      <sortCondition ref="A1:A146"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>